--- a/Code/Results/Cases/Case_3_92/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_92/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.78545286453899</v>
+        <v>6.906113890363072</v>
       </c>
       <c r="C2">
-        <v>6.179620604864743</v>
+        <v>4.90392508821604</v>
       </c>
       <c r="D2">
-        <v>4.881614221084572</v>
+        <v>4.900273728404036</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.32337258307873</v>
+        <v>23.94134360223773</v>
       </c>
       <c r="G2">
-        <v>2.086439249083623</v>
+        <v>3.629648391171952</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.67664694745719</v>
+        <v>20.59350399651791</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.00992124969662</v>
+        <v>7.682836885518371</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.73932800137705</v>
+        <v>19.97477329853833</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.73671193065858</v>
+        <v>21.4559750341556</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.20385955467849</v>
+        <v>6.651024515813699</v>
       </c>
       <c r="C3">
-        <v>5.95804693311622</v>
+        <v>4.800359225142183</v>
       </c>
       <c r="D3">
-        <v>4.731196929298929</v>
+        <v>4.840126806367293</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.98420008206055</v>
+        <v>23.95451916270414</v>
       </c>
       <c r="G3">
-        <v>2.091240192756357</v>
+        <v>3.631347084308849</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.78729567049079</v>
+        <v>20.66926421772198</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.584326955306928</v>
+        <v>7.480574872430257</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.45984036951636</v>
+        <v>19.38065203147536</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.70547774425159</v>
+        <v>21.51396565792024</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.827458871215512</v>
+        <v>6.490047010523687</v>
       </c>
       <c r="C4">
-        <v>5.816404935822046</v>
+        <v>4.734849499013662</v>
       </c>
       <c r="D4">
-        <v>4.635304995739474</v>
+        <v>4.802192482888754</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.79064098026845</v>
+        <v>23.96889503291076</v>
       </c>
       <c r="G4">
-        <v>2.094262545830573</v>
+        <v>3.632444432776203</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.86629115721905</v>
+        <v>20.71973086359063</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.311114468439039</v>
+        <v>7.352066041931496</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.00979960743798</v>
+        <v>19.01464140048856</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.69944653900365</v>
+        <v>21.55412970650277</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.669299486082954</v>
+        <v>6.423454267693673</v>
       </c>
       <c r="C5">
-        <v>5.757345667881132</v>
+        <v>4.707692753964075</v>
       </c>
       <c r="D5">
-        <v>4.595381769936854</v>
+        <v>4.786489500542277</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.71542747046801</v>
+        <v>23.97633157403374</v>
       </c>
       <c r="G5">
-        <v>2.095513932944295</v>
+        <v>3.632905323231519</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.90112859534696</v>
+        <v>20.74128777818588</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.196889783367618</v>
+        <v>7.298656395021336</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.40541091120015</v>
+        <v>18.86543315416207</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.70015231532974</v>
+        <v>21.57163992270001</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.642751582550956</v>
+        <v>6.412339774128373</v>
       </c>
       <c r="C6">
-        <v>5.747460117294419</v>
+        <v>4.703156214394017</v>
       </c>
       <c r="D6">
-        <v>4.588702708510692</v>
+        <v>4.783867506743624</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.70315849263647</v>
+        <v>23.97766164113933</v>
       </c>
       <c r="G6">
-        <v>2.095722945431281</v>
+        <v>3.632982683288928</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.9070693811837</v>
+        <v>20.74492710958719</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.177751641745669</v>
+        <v>7.289726254050535</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.30421651607054</v>
+        <v>18.84066140130647</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.70045644442171</v>
+        <v>21.57461642715657</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.825345088263967</v>
+        <v>6.489152797170668</v>
       </c>
       <c r="C7">
-        <v>5.815613770691739</v>
+        <v>4.734485090580154</v>
       </c>
       <c r="D7">
-        <v>4.634769946820805</v>
+        <v>4.801981685999056</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.7896118394902</v>
+        <v>23.96898893831</v>
       </c>
       <c r="G7">
-        <v>2.094279341234496</v>
+        <v>3.632450592924238</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.8667504441886</v>
+        <v>20.7200175762055</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.309585545137795</v>
+        <v>7.351349894976162</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.00170420267629</v>
+        <v>19.01262901319661</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.69944343528999</v>
+        <v>21.55436123140719</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.58896921106751</v>
+        <v>6.819119710679633</v>
       </c>
       <c r="C8">
-        <v>6.10442276269944</v>
+        <v>4.868626714087617</v>
       </c>
       <c r="D8">
-        <v>4.830508885031899</v>
+        <v>4.8797481453649</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.20335934544228</v>
+        <v>23.94458067614854</v>
       </c>
       <c r="G8">
-        <v>2.088079780605528</v>
+        <v>3.630222849709071</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.71242044946501</v>
+        <v>20.61880530723138</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.865703833689023</v>
+        <v>7.614019175311683</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.96330747718585</v>
+        <v>19.77031937119033</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.72312772362844</v>
+        <v>21.47502251551109</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.93035972272638</v>
+        <v>7.427733355992561</v>
       </c>
       <c r="C9">
-        <v>6.623545996084497</v>
+        <v>5.115553971211544</v>
       </c>
       <c r="D9">
-        <v>5.184518357907509</v>
+        <v>5.023944755905126</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.13248943168257</v>
+        <v>23.94666422175728</v>
       </c>
       <c r="G9">
-        <v>2.076461976397383</v>
+        <v>3.626283305734864</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.50398758629334</v>
+        <v>20.45174684640185</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.85780240490365</v>
+        <v>8.093053631636492</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.41401949777686</v>
+        <v>21.23615979068745</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.88034405391279</v>
+        <v>21.35573091182922</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.81727377328718</v>
+        <v>7.846878341013432</v>
       </c>
       <c r="C10">
-        <v>6.972367905326903</v>
+        <v>5.286041696436227</v>
       </c>
       <c r="D10">
-        <v>5.424053613959067</v>
+        <v>5.124391205843716</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.88865884710005</v>
+        <v>23.97868821206652</v>
       </c>
       <c r="G10">
-        <v>2.068169430741188</v>
+        <v>3.623647478601755</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.41796274154483</v>
+        <v>20.34827251236088</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.52161041110106</v>
+        <v>8.420868240447209</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.27555147976528</v>
+        <v>22.28817525209275</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.07245029687653</v>
+        <v>21.2903806224609</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.19864117106824</v>
+        <v>8.030695325010484</v>
       </c>
       <c r="C11">
-        <v>7.123119880211706</v>
+        <v>5.361020914926681</v>
       </c>
       <c r="D11">
-        <v>5.528033551108569</v>
+        <v>5.168807358241391</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.24917114022126</v>
+        <v>23.99986773328408</v>
       </c>
       <c r="G11">
-        <v>2.064425443005661</v>
+        <v>3.622503872656329</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.39575051970106</v>
+        <v>20.30540591654382</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.80839834768679</v>
+        <v>8.564371450850055</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.02370373436686</v>
+        <v>22.75898319465318</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.1785306429071</v>
+        <v>21.26552481857989</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.33981111452442</v>
+        <v>8.099262113516405</v>
       </c>
       <c r="C12">
-        <v>7.178982408670984</v>
+        <v>5.389027490351479</v>
       </c>
       <c r="D12">
-        <v>5.566641704239976</v>
+        <v>5.18543598796014</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.38813402297821</v>
+        <v>24.0088360179324</v>
       </c>
       <c r="G12">
-        <v>2.063009179283349</v>
+        <v>3.622078742653709</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.38998841053079</v>
+        <v>20.28978004655194</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.9147166560157</v>
+        <v>8.617875710998794</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.6870086173409</v>
+        <v>22.93597616957267</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.22156964322898</v>
+        <v>21.25681561874956</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.30955322683593</v>
+        <v>8.084542115063096</v>
       </c>
       <c r="C13">
-        <v>7.167007349198975</v>
+        <v>5.383013200007989</v>
       </c>
       <c r="D13">
-        <v>5.558361725774382</v>
+        <v>5.181863311021915</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.35809571213719</v>
+        <v>24.00686242562033</v>
       </c>
       <c r="G13">
-        <v>2.063314177910328</v>
+        <v>3.622169950074373</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.39110791194146</v>
+        <v>20.29311833569549</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.89192233937782</v>
+        <v>8.60639028006791</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.54404701790605</v>
+        <v>22.8979176384697</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.21216979276509</v>
+        <v>21.25865998987605</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.21032079368715</v>
+        <v>8.036357503167654</v>
       </c>
       <c r="C14">
-        <v>7.127740787984295</v>
+        <v>5.363332864111706</v>
       </c>
       <c r="D14">
-        <v>5.531225546684979</v>
+        <v>5.170179269244326</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.260554198494</v>
+        <v>24.00058657789826</v>
       </c>
       <c r="G14">
-        <v>2.064308912973752</v>
+        <v>3.622468738303317</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.39522206739315</v>
+        <v>20.30410819351872</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.81719157428921</v>
+        <v>8.568790214577819</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.0782306541779</v>
+        <v>22.77357134967487</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.18201290419747</v>
+        <v>21.26479420153015</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.14911313611558</v>
+        <v>8.006705994797294</v>
       </c>
       <c r="C15">
-        <v>7.103526749513003</v>
+        <v>5.351227314514706</v>
       </c>
       <c r="D15">
-        <v>5.514502391626998</v>
+        <v>5.162997402236521</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.20112814517313</v>
+        <v>23.99686580839913</v>
       </c>
       <c r="G15">
-        <v>2.064918325821275</v>
+        <v>3.622652785969832</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.39809384839035</v>
+        <v>20.31091888431558</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.77111644903664</v>
+        <v>8.545649239329714</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.79316398092219</v>
+        <v>22.69723249859559</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.16392015074364</v>
+        <v>21.26864322587476</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.79190033747261</v>
+        <v>7.834722667394659</v>
       </c>
       <c r="C16">
-        <v>6.962349507651673</v>
+        <v>5.281088391914172</v>
       </c>
       <c r="D16">
-        <v>5.417153845809501</v>
+        <v>5.121462185908329</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.86543622437117</v>
+        <v>23.97743691702175</v>
       </c>
       <c r="G16">
-        <v>2.068414472920178</v>
+        <v>3.623723327854672</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.41977288483641</v>
+        <v>20.35115873596635</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.5025544918363</v>
+        <v>8.411374310784545</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.16133609890491</v>
+        <v>22.2572352731833</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.06590895102508</v>
+        <v>21.29210327148666</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.56705769091604</v>
+        <v>7.727419383591363</v>
       </c>
       <c r="C17">
-        <v>6.873655507378253</v>
+        <v>5.2373887959057</v>
       </c>
       <c r="D17">
-        <v>5.356123206005551</v>
+        <v>5.095649339707123</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.66377248493507</v>
+        <v>23.96720972986696</v>
       </c>
       <c r="G17">
-        <v>2.070564852315774</v>
+        <v>3.624394239940824</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.43755391949852</v>
+        <v>20.37692299012333</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.33384548056815</v>
+        <v>8.32753969868102</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.15968635496317</v>
+        <v>21.98519322277521</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.01069390083019</v>
+        <v>21.30774502978325</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.43565906908005</v>
+        <v>7.665059024187662</v>
       </c>
       <c r="C18">
-        <v>6.82190036663952</v>
+        <v>5.21201230260514</v>
       </c>
       <c r="D18">
-        <v>5.320553968369082</v>
+        <v>5.080682640740085</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.54933095775674</v>
+        <v>23.96194986665316</v>
       </c>
       <c r="G18">
-        <v>2.071804543707585</v>
+        <v>3.624785352209274</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.44935979714245</v>
+        <v>20.39213751482774</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.23538596858669</v>
+        <v>8.278792681372613</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.58258014441646</v>
+        <v>21.82800092531548</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.98068340152828</v>
+        <v>21.31720022798915</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.39081526232919</v>
+        <v>7.643836354196348</v>
       </c>
       <c r="C19">
-        <v>6.80425208998015</v>
+        <v>5.203379261867945</v>
       </c>
       <c r="D19">
-        <v>5.308432208725306</v>
+        <v>5.075594813788021</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.51084765705278</v>
+        <v>23.96027595527953</v>
       </c>
       <c r="G19">
-        <v>2.072224840413797</v>
+        <v>3.624918674228697</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.45362193111722</v>
+        <v>20.3973567704297</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.20180775750234</v>
+        <v>8.26219809967607</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.38694658002468</v>
+        <v>21.77466014298068</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.97081724020554</v>
+        <v>21.32048025893306</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.59120779549231</v>
+        <v>7.738908904370439</v>
       </c>
       <c r="C20">
-        <v>6.88317435783779</v>
+        <v>5.242065820855109</v>
       </c>
       <c r="D20">
-        <v>5.362668593363271</v>
+        <v>5.098409615912031</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>19.68507910553062</v>
+        <v>23.96823401671524</v>
       </c>
       <c r="G20">
-        <v>2.070335662535668</v>
+        <v>3.624322280131971</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.43549620474349</v>
+        <v>20.37413938156313</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.35195274602253</v>
+        <v>8.33651885637652</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.26639932670846</v>
+        <v>22.01422850394869</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.01638948608122</v>
+        <v>21.30603246893731</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.23955646135118</v>
+        <v>8.050539139415593</v>
       </c>
       <c r="C21">
-        <v>7.13930828984761</v>
+        <v>5.369124064084395</v>
       </c>
       <c r="D21">
-        <v>5.539217344871683</v>
+        <v>5.173616389039815</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.28913745226649</v>
+        <v>24.00240424282879</v>
       </c>
       <c r="G21">
-        <v>2.064016717986268</v>
+        <v>3.622380762125106</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.3939399240867</v>
+        <v>20.30086372061129</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.83920460805947</v>
+        <v>8.579857205378664</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.2149925607589</v>
+        <v>22.81013124521196</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.1907913407583</v>
+        <v>21.2629733324273</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.64432861340825</v>
+        <v>8.248120861420391</v>
       </c>
       <c r="C22">
-        <v>7.299520860680627</v>
+        <v>5.449905063166895</v>
       </c>
       <c r="D22">
-        <v>5.650103305538718</v>
+        <v>5.221653132013253</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.69823218019239</v>
+        <v>24.03026052279678</v>
       </c>
       <c r="G22">
-        <v>2.059893989987384</v>
+        <v>3.621158062303281</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.3823368872246</v>
+        <v>20.25651162802919</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.14429155122158</v>
+        <v>8.734001100697517</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.15152014050667</v>
+        <v>23.32270058461961</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.3215901856001</v>
+        <v>21.23893124079337</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.430055599565</v>
+        <v>8.143241062054695</v>
       </c>
       <c r="C23">
-        <v>7.214701947017399</v>
+        <v>5.407002354537456</v>
       </c>
       <c r="D23">
-        <v>5.591351656347035</v>
+        <v>5.196119332211639</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.47854972919224</v>
+        <v>24.01488879693613</v>
       </c>
       <c r="G23">
-        <v>2.062094746288609</v>
+        <v>3.621806427969219</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.38702960325845</v>
+        <v>20.27985874400523</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.98272045347485</v>
+        <v>8.652188021020834</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.11604760398737</v>
+        <v>23.04988174876965</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.25017750547738</v>
+        <v>21.25138706988315</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.5802961739074</v>
+        <v>7.733716575517807</v>
       </c>
       <c r="C24">
-        <v>6.878873258439596</v>
+        <v>5.239952124733923</v>
       </c>
       <c r="D24">
-        <v>5.359710921127181</v>
+        <v>5.097162088672271</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>19.67544172218331</v>
+        <v>23.9677690056422</v>
       </c>
       <c r="G24">
-        <v>2.070439268429774</v>
+        <v>3.624354796351112</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.4364215819706</v>
+        <v>20.37539659804779</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.34377101174472</v>
+        <v>8.332461088157011</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.21815844926243</v>
+        <v>22.00110410575252</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.01380912640929</v>
+        <v>21.30680527717003</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.58456159347307</v>
+        <v>7.267711134143698</v>
       </c>
       <c r="C25">
-        <v>6.488554824207525</v>
+        <v>5.050598443924152</v>
       </c>
       <c r="D25">
-        <v>5.092187917595837</v>
+        <v>4.985870384122716</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18.86835894380611</v>
+        <v>23.940745006513</v>
       </c>
       <c r="G25">
-        <v>2.079555159643519</v>
+        <v>3.627303435118946</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.54933480927799</v>
+        <v>20.49356566438687</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.60049089057818</v>
+        <v>7.967557510412552</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>32.97090722965286</v>
+        <v>20.8431302997314</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.82503166522665</v>
+        <v>21.38409910152391</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_92/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_92/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.906113890363072</v>
+        <v>10.78545286453907</v>
       </c>
       <c r="C2">
-        <v>4.90392508821604</v>
+        <v>6.179620604864743</v>
       </c>
       <c r="D2">
-        <v>4.900273728404036</v>
+        <v>4.881614221084576</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.94134360223773</v>
+        <v>18.32337258307871</v>
       </c>
       <c r="G2">
-        <v>3.629648391171952</v>
+        <v>2.086439249083623</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.59350399651791</v>
+        <v>13.67664694745718</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.682836885518371</v>
+        <v>10.00992124969665</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.97477329853833</v>
+        <v>29.73932800137704</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.4559750341556</v>
+        <v>14.73671193065856</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.651024515813699</v>
+        <v>10.20385955467841</v>
       </c>
       <c r="C3">
-        <v>4.800359225142183</v>
+        <v>5.958046933116308</v>
       </c>
       <c r="D3">
-        <v>4.840126806367293</v>
+        <v>4.731196929298928</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.95451916270414</v>
+        <v>17.98420008206065</v>
       </c>
       <c r="G3">
-        <v>3.631347084308849</v>
+        <v>2.091240192756357</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.66926421772198</v>
+        <v>13.78729567049093</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.480574872430257</v>
+        <v>9.584326955306922</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.38065203147536</v>
+        <v>27.45984036951628</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.51396565792024</v>
+        <v>14.70547774425171</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.490047010523687</v>
+        <v>9.827458871215484</v>
       </c>
       <c r="C4">
-        <v>4.734849499013662</v>
+        <v>5.816404935821956</v>
       </c>
       <c r="D4">
-        <v>4.802192482888754</v>
+        <v>4.635304995739585</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.96889503291076</v>
+        <v>17.79064098026853</v>
       </c>
       <c r="G4">
-        <v>3.632444432776203</v>
+        <v>2.094262545830574</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.71973086359063</v>
+        <v>13.86629115721915</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.352066041931496</v>
+        <v>9.311114468439023</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.01464140048856</v>
+        <v>26.00979960743797</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.55412970650277</v>
+        <v>14.69944653900378</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.423454267693673</v>
+        <v>9.669299486083007</v>
       </c>
       <c r="C5">
-        <v>4.707692753964075</v>
+        <v>5.757345667880998</v>
       </c>
       <c r="D5">
-        <v>4.786489500542277</v>
+        <v>4.595381769936982</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.97633157403374</v>
+        <v>17.71542747046795</v>
       </c>
       <c r="G5">
-        <v>3.632905323231519</v>
+        <v>2.095513932944296</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.74128777818588</v>
+        <v>13.90112859534692</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.298656395021336</v>
+        <v>9.196889783367689</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.86543315416207</v>
+        <v>25.40541091120019</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.57163992270001</v>
+        <v>14.70015231532973</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.412339774128373</v>
+        <v>9.642751582551121</v>
       </c>
       <c r="C6">
-        <v>4.703156214394017</v>
+        <v>5.747460117294261</v>
       </c>
       <c r="D6">
-        <v>4.783867506743624</v>
+        <v>4.58870270851058</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.97766164113933</v>
+        <v>17.70315849263667</v>
       </c>
       <c r="G6">
-        <v>3.632982683288928</v>
+        <v>2.095722945431012</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.74492710958719</v>
+        <v>13.90706938118378</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.289726254050535</v>
+        <v>9.177751641745692</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.84066140130647</v>
+        <v>25.30421651607054</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.57461642715657</v>
+        <v>14.70045644442185</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.489152797170668</v>
+        <v>9.825345088263973</v>
       </c>
       <c r="C7">
-        <v>4.734485090580154</v>
+        <v>5.815613770691716</v>
       </c>
       <c r="D7">
-        <v>4.801981685999056</v>
+        <v>4.634769946820912</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.96898893831</v>
+        <v>17.78961183949011</v>
       </c>
       <c r="G7">
-        <v>3.632450592924238</v>
+        <v>2.09427934123423</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.7200175762055</v>
+        <v>13.86675044418854</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.351349894976162</v>
+        <v>9.309585545137788</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.01262901319661</v>
+        <v>26.00170420267631</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.55436123140719</v>
+        <v>14.69944343528994</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.819119710679633</v>
+        <v>10.58896921106754</v>
       </c>
       <c r="C8">
-        <v>4.868626714087617</v>
+        <v>6.104422762699513</v>
       </c>
       <c r="D8">
-        <v>4.8797481453649</v>
+        <v>4.830508885031995</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.94458067614854</v>
+        <v>18.20335934544223</v>
       </c>
       <c r="G8">
-        <v>3.630222849709071</v>
+        <v>2.088079780605796</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.61880530723138</v>
+        <v>13.71242044946504</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.614019175311683</v>
+        <v>9.865703833689112</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.77031937119033</v>
+        <v>28.96330747718581</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.47502251551109</v>
+        <v>14.72312772362842</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.427733355992561</v>
+        <v>11.93035972272652</v>
       </c>
       <c r="C9">
-        <v>5.115553971211544</v>
+        <v>6.623545996084304</v>
       </c>
       <c r="D9">
-        <v>5.023944755905126</v>
+        <v>5.184518357907413</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.94666422175728</v>
+        <v>19.13248943168253</v>
       </c>
       <c r="G9">
-        <v>3.626283305734864</v>
+        <v>2.076461976397516</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.45174684640185</v>
+        <v>13.50398758629318</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.093053631636492</v>
+        <v>10.85780240490369</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.23615979068745</v>
+        <v>34.41401949777698</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.35573091182922</v>
+        <v>14.88034405391269</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.846878341013432</v>
+        <v>12.81727377328718</v>
       </c>
       <c r="C10">
-        <v>5.286041696436227</v>
+        <v>6.972367905326991</v>
       </c>
       <c r="D10">
-        <v>5.124391205843716</v>
+        <v>5.424053613959074</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.97868821206652</v>
+        <v>19.88865884710011</v>
       </c>
       <c r="G10">
-        <v>3.623647478601755</v>
+        <v>2.068169430741454</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.34827251236088</v>
+        <v>13.41796274154491</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.420868240447209</v>
+        <v>11.52161041110105</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.28817525209275</v>
+        <v>38.27555147976533</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.2903806224609</v>
+        <v>15.07245029687656</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.030695325010484</v>
+        <v>13.19864117106817</v>
       </c>
       <c r="C11">
-        <v>5.361020914926681</v>
+        <v>7.123119880211641</v>
       </c>
       <c r="D11">
-        <v>5.168807358241391</v>
+        <v>5.528033551108467</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.99986773328408</v>
+        <v>20.24917114022145</v>
       </c>
       <c r="G11">
-        <v>3.622503872656329</v>
+        <v>2.06442544300566</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.30540591654382</v>
+        <v>13.39575051970122</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.564371450850055</v>
+        <v>11.80839834768671</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.75898319465318</v>
+        <v>40.0237037343668</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.26552481857989</v>
+        <v>15.17853064290726</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.099262113516405</v>
+        <v>13.33981111452439</v>
       </c>
       <c r="C12">
-        <v>5.389027490351479</v>
+        <v>7.178982408670945</v>
       </c>
       <c r="D12">
-        <v>5.18543598796014</v>
+        <v>5.566641704240073</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.0088360179324</v>
+        <v>20.38813402297821</v>
       </c>
       <c r="G12">
-        <v>3.622078742653709</v>
+        <v>2.063009179283215</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.28978004655194</v>
+        <v>13.38998841053081</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.617875710998794</v>
+        <v>11.91471665601566</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.93597616957267</v>
+        <v>40.68700861734103</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.25681561874956</v>
+        <v>15.221569643229</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.084542115063096</v>
+        <v>13.30955322683598</v>
       </c>
       <c r="C13">
-        <v>5.383013200007989</v>
+        <v>7.167007349198876</v>
       </c>
       <c r="D13">
-        <v>5.181863311021915</v>
+        <v>5.558361725774297</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.00686242562033</v>
+        <v>20.35809571213713</v>
       </c>
       <c r="G13">
-        <v>3.622169950074373</v>
+        <v>2.063314177910195</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.29311833569549</v>
+        <v>13.39110791194133</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.60639028006791</v>
+        <v>11.89192233937785</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.8979176384697</v>
+        <v>40.54404701790615</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.25865998987605</v>
+        <v>15.21216979276501</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.036357503167654</v>
+        <v>13.21032079368707</v>
       </c>
       <c r="C14">
-        <v>5.363332864111706</v>
+        <v>7.127740787984307</v>
       </c>
       <c r="D14">
-        <v>5.170179269244326</v>
+        <v>5.531225546684916</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.00058657789826</v>
+        <v>20.26055419849405</v>
       </c>
       <c r="G14">
-        <v>3.622468738303317</v>
+        <v>2.064308912973617</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.30410819351872</v>
+        <v>13.3952220673932</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.568790214577819</v>
+        <v>11.81719157428918</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.77357134967487</v>
+        <v>40.07823065417788</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.26479420153015</v>
+        <v>15.1820129041975</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.006705994797294</v>
+        <v>13.14911313611561</v>
       </c>
       <c r="C15">
-        <v>5.351227314514706</v>
+        <v>7.103526749512977</v>
       </c>
       <c r="D15">
-        <v>5.162997402236521</v>
+        <v>5.514502391627127</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.99686580839913</v>
+        <v>20.20112814517309</v>
       </c>
       <c r="G15">
-        <v>3.622652785969832</v>
+        <v>2.064918325821142</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.31091888431558</v>
+        <v>13.39809384839036</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.545649239329714</v>
+        <v>11.77111644903662</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.69723249859559</v>
+        <v>39.7931639809221</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.26864322587476</v>
+        <v>15.16392015074367</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.834722667394659</v>
+        <v>12.79190033747261</v>
       </c>
       <c r="C16">
-        <v>5.281088391914172</v>
+        <v>6.96234950765176</v>
       </c>
       <c r="D16">
-        <v>5.121462185908329</v>
+        <v>5.417153845809652</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.97743691702175</v>
+        <v>19.86543622437113</v>
       </c>
       <c r="G16">
-        <v>3.623723327854672</v>
+        <v>2.068414472920178</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.35115873596635</v>
+        <v>13.4197728848364</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.411374310784545</v>
+        <v>11.50255449183627</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.2572352731833</v>
+        <v>38.16133609890501</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.29210327148666</v>
+        <v>15.06590895102508</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.727419383591363</v>
+        <v>12.56705769091601</v>
       </c>
       <c r="C17">
-        <v>5.2373887959057</v>
+        <v>6.873655507378242</v>
       </c>
       <c r="D17">
-        <v>5.095649339707123</v>
+        <v>5.356123206005563</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.96720972986696</v>
+        <v>19.66377248493508</v>
       </c>
       <c r="G17">
-        <v>3.624394239940824</v>
+        <v>2.070564852315775</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.37692299012333</v>
+        <v>13.43755391949852</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.32753969868102</v>
+        <v>11.33384548056813</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.98519322277521</v>
+        <v>37.15968635496309</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.30774502978325</v>
+        <v>15.01069390083017</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.665059024187662</v>
+        <v>12.43565906907995</v>
       </c>
       <c r="C18">
-        <v>5.21201230260514</v>
+        <v>6.82190036663966</v>
       </c>
       <c r="D18">
-        <v>5.080682640740085</v>
+        <v>5.320553968369036</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.96194986665316</v>
+        <v>19.54933095775677</v>
       </c>
       <c r="G18">
-        <v>3.624785352209274</v>
+        <v>2.071804543707718</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.39213751482774</v>
+        <v>13.44935979714253</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.278792681372613</v>
+        <v>11.23538596858667</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.82800092531548</v>
+        <v>36.58258014441651</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.31720022798915</v>
+        <v>14.98068340152832</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.643836354196348</v>
+        <v>12.39081526232912</v>
       </c>
       <c r="C19">
-        <v>5.203379261867945</v>
+        <v>6.804252089980251</v>
       </c>
       <c r="D19">
-        <v>5.075594813788021</v>
+        <v>5.308432208725296</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.96027595527953</v>
+        <v>19.51084765705281</v>
       </c>
       <c r="G19">
-        <v>3.624918674228697</v>
+        <v>2.072224840413662</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.3973567704297</v>
+        <v>13.45362193111725</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.26219809967607</v>
+        <v>11.20180775750234</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.77466014298068</v>
+        <v>36.38694658002472</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.32048025893306</v>
+        <v>14.97081724020556</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.738908904370439</v>
+        <v>12.59120779549233</v>
       </c>
       <c r="C20">
-        <v>5.242065820855109</v>
+        <v>6.883174357837577</v>
       </c>
       <c r="D20">
-        <v>5.098409615912031</v>
+        <v>5.362668593363335</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.96823401671524</v>
+        <v>19.68507910553057</v>
       </c>
       <c r="G20">
-        <v>3.624322280131971</v>
+        <v>2.070335662535803</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.37413938156313</v>
+        <v>13.43549620474341</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.33651885637652</v>
+        <v>11.35195274602249</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.01422850394869</v>
+        <v>37.26639932670857</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.30603246893731</v>
+        <v>15.01638948608119</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.050539139415593</v>
+        <v>13.23955646135117</v>
       </c>
       <c r="C21">
-        <v>5.369124064084395</v>
+        <v>7.139308289847671</v>
       </c>
       <c r="D21">
-        <v>5.173616389039815</v>
+        <v>5.539217344871701</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.00240424282879</v>
+        <v>20.28913745226648</v>
       </c>
       <c r="G21">
-        <v>3.622380762125106</v>
+        <v>2.064016717986136</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.30086372061129</v>
+        <v>13.39393992408671</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.579857205378664</v>
+        <v>11.83920460805949</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.81013124521196</v>
+        <v>40.21499256075893</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.2629733324273</v>
+        <v>15.19079134075827</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.248120861420391</v>
+        <v>13.64432861340824</v>
       </c>
       <c r="C22">
-        <v>5.449905063166895</v>
+        <v>7.299520860680614</v>
       </c>
       <c r="D22">
-        <v>5.221653132013253</v>
+        <v>5.650103305538711</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.03026052279678</v>
+        <v>20.69823218019244</v>
       </c>
       <c r="G22">
-        <v>3.621158062303281</v>
+        <v>2.05989398998725</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.25651162802919</v>
+        <v>13.38233688722469</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8.734001100697517</v>
+        <v>12.14429155122159</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.32270058461961</v>
+        <v>42.15152014050666</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.23893124079337</v>
+        <v>15.32159018560019</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.143241062054695</v>
+        <v>13.43005559956503</v>
       </c>
       <c r="C23">
-        <v>5.407002354537456</v>
+        <v>7.214701947017348</v>
       </c>
       <c r="D23">
-        <v>5.196119332211639</v>
+        <v>5.591351656347046</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.01488879693613</v>
+        <v>20.47854972919227</v>
       </c>
       <c r="G23">
-        <v>3.621806427969219</v>
+        <v>2.062094746288742</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.27985874400523</v>
+        <v>13.38702960325849</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.652188021020834</v>
+        <v>11.98272045347491</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.04988174876965</v>
+        <v>41.11604760398742</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.25138706988315</v>
+        <v>15.25017750547737</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.733716575517807</v>
+        <v>12.58029617390748</v>
       </c>
       <c r="C24">
-        <v>5.239952124733923</v>
+        <v>6.878873258439583</v>
       </c>
       <c r="D24">
-        <v>5.097162088672271</v>
+        <v>5.359710921127181</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.9677690056422</v>
+        <v>19.67544172218325</v>
       </c>
       <c r="G24">
-        <v>3.624354796351112</v>
+        <v>2.070439268429641</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.37539659804779</v>
+        <v>13.43642158197057</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.332461088157011</v>
+        <v>11.34377101174475</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.00110410575252</v>
+        <v>37.21815844926234</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.30680527717003</v>
+        <v>15.01380912640922</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.267711134143698</v>
+        <v>11.58456159347317</v>
       </c>
       <c r="C25">
-        <v>5.050598443924152</v>
+        <v>6.4885548242075</v>
       </c>
       <c r="D25">
-        <v>4.985870384122716</v>
+        <v>5.092187917596033</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.940745006513</v>
+        <v>18.86835894380607</v>
       </c>
       <c r="G25">
-        <v>3.627303435118946</v>
+        <v>2.079555159643386</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.49356566438687</v>
+        <v>13.54933480927801</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>7.967557510412552</v>
+        <v>10.60049089057822</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.8431302997314</v>
+        <v>32.97090722965297</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.38409910152391</v>
+        <v>14.82503166522666</v>
       </c>
     </row>
   </sheetData>
